--- a/output/dataset_description_encoded_data.xlsx
+++ b/output/dataset_description_encoded_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Data Type</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>IPC pharma</t>
+  </si>
+  <si>
+    <t>patent revoked</t>
+  </si>
+  <si>
+    <t>numcitations</t>
+  </si>
+  <si>
+    <t>Keywords_encoded</t>
+  </si>
+  <si>
+    <t>Decisions cited_encoded</t>
+  </si>
+  <si>
+    <t>Opponents_encoded</t>
   </si>
   <si>
     <t>int64</t>
@@ -413,219 +431,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>952</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>0.8403361344537815</v>
+      </c>
+      <c r="I2">
+        <v>0.3664865618803495</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>952</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0.4222689075630252</v>
+      </c>
+      <c r="I3">
+        <v>0.4941805388771433</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>0.8403361344537815</v>
-      </c>
-      <c r="H2">
-        <v>0.3664865618803495</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>952</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>2.189075630252101</v>
+      </c>
+      <c r="I4">
+        <v>2.781183278301223</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>952</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
         <v>0.4222689075630252</v>
       </c>
-      <c r="H3">
-        <v>0.4941805388771433</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="I5">
+        <v>0.4733360121743069</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>952</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2.189075630252101</v>
-      </c>
-      <c r="H4">
-        <v>2.781183278301223</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>32</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>0.4222689075630252</v>
+      </c>
+      <c r="I6">
+        <v>0.351694628908761</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
         <v>952</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
         <v>0.4222689075630252</v>
       </c>
-      <c r="H5">
-        <v>0.351694628908761</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>952</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0.4222689075630252</v>
-      </c>
-      <c r="H6">
+      <c r="I7">
         <v>0.4296709071835572</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.2758620689655172</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
